--- a/Trainer-Kalkulation.xlsx
+++ b/Trainer-Kalkulation.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23530"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27628"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://granikos.sharepoint.com/sites/GranikosTraining/Freigegebene Dokumente/General/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GITHUB\MCT-Kalkulationsvorlage\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="251" documentId="11_05394DDEA551532A52C40AAA1150B4D82573F5DE" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{412DA5D6-9CE4-44D3-B578-561F113DF6CA}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9BD4055F-6DD6-451C-8427-E6ED466FABEF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="22780" windowHeight="14540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Kalkulation" sheetId="1" r:id="rId1"/>
@@ -78,9 +78,6 @@
     <t>Bahnfahrkarte (An-/Abreise)</t>
   </si>
   <si>
-    <t>ÖPNV/Taxi Vorort je Tag</t>
-  </si>
-  <si>
     <t>Auto (persönlich/Mietwagen)</t>
   </si>
   <si>
@@ -132,13 +129,16 @@
     <t>Version</t>
   </si>
   <si>
-    <t>5. Januar 2021</t>
-  </si>
-  <si>
     <t>Errechneter Sockel je Stunde</t>
   </si>
   <si>
     <t>Stunden je Tag</t>
+  </si>
+  <si>
+    <t>ÖPNV/Taxi vor Ort je Tag</t>
+  </si>
+  <si>
+    <t>4. August 2024</t>
   </si>
 </sst>
 </file>
@@ -297,9 +297,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 – 2022-Design">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 – 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -337,7 +337,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 – 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -443,7 +443,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 – 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -585,7 +585,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -595,33 +595,33 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="C30" sqref="C30"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="27.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="28.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="21.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="27.7265625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.453125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="28.54296875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="21.81640625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A1" s="14" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B1" s="15" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -629,18 +629,18 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B5" s="17">
         <v>850</v>
       </c>
       <c r="C5" s="2"/>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B6" s="18">
         <f>(Sockel/StundenJeTag)</f>
@@ -648,22 +648,22 @@
       </c>
       <c r="C6" s="2"/>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.35">
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B8" s="19" t="s">
         <v>3</v>
       </c>
       <c r="C8" s="2"/>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B9" s="19">
         <v>2</v>
@@ -674,9 +674,9 @@
         <v>425</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B10" s="12">
         <v>300</v>
@@ -691,23 +691,23 @@
         <v>106.25</v>
       </c>
     </row>
-    <row r="11" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B11" s="3"/>
       <c r="C11" s="13" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D11" s="9">
         <f>SUM(D9:D10)</f>
         <v>725</v>
       </c>
     </row>
-    <row r="12" spans="1:13" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:13" ht="15" thickTop="1" x14ac:dyDescent="0.35"/>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A13" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>0</v>
       </c>
@@ -716,7 +716,7 @@
       </c>
       <c r="C14" s="2"/>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>6</v>
       </c>
@@ -725,33 +725,33 @@
       </c>
       <c r="C15" s="3"/>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B16" s="19" t="s">
         <v>4</v>
       </c>
       <c r="C16" s="3"/>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A17" s="5"/>
       <c r="B17" s="3"/>
       <c r="C17" s="7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D17" s="2">
         <f>IF(Vortag="Ja",Dauer*Hotel,(Dauer-1)*Hotel)+IF(Folgetag="Ja",Hotel)</f>
         <v>800</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B18" s="3"/>
       <c r="C18" s="3"/>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B19" s="17">
         <v>50</v>
@@ -759,19 +759,19 @@
       <c r="C19" s="2"/>
       <c r="D19" s="4"/>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B20" s="2"/>
       <c r="C20" s="6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D20" s="4">
         <f>(SpesenJeTag*Dauer)</f>
         <v>250</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B22" s="17">
         <v>125</v>
@@ -781,7 +781,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>7</v>
       </c>
@@ -794,9 +794,9 @@
         <v>80</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
-        <v>8</v>
+        <v>27</v>
       </c>
       <c r="B24" s="17">
         <v>25</v>
@@ -807,9 +807,9 @@
         <v>125</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B25" s="17">
         <v>0</v>
@@ -820,47 +820,47 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="C27" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D27" s="9">
         <f>SUM(D17:D26)</f>
         <v>1380</v>
       </c>
     </row>
-    <row r="28" spans="1:4" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:4" ht="15" thickTop="1" x14ac:dyDescent="0.35"/>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.35">
       <c r="C29" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D29" s="2">
         <f>(Sockel*Dauer)</f>
         <v>4250</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.35">
       <c r="C30" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D30" s="2">
         <f>SummeIndividuelleSchulung</f>
         <v>725</v>
       </c>
     </row>
-    <row r="32" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="C32" s="8" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D32" s="10">
         <f>SUM(D27:D30)</f>
         <v>6355</v>
       </c>
     </row>
-    <row r="33" spans="3:5" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
-    <row r="35" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="33" spans="3:5" ht="15" thickTop="1" x14ac:dyDescent="0.35"/>
+    <row r="35" spans="3:5" x14ac:dyDescent="0.35">
       <c r="C35" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D35" s="11">
         <f>(D32/Dauer)</f>
@@ -868,9 +868,9 @@
       </c>
       <c r="E35" s="4"/>
     </row>
-    <row r="37" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="37" spans="3:5" x14ac:dyDescent="0.35">
       <c r="C37" s="20" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D37" s="21">
         <f>ROUND(Tagessatz+50,-2)</f>
@@ -898,24 +898,24 @@
       <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A9">
         <v>8</v>
       </c>
@@ -926,9 +926,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1078,26 +1081,15 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{34042540-0C7D-4475-BFB8-6A93E22B7868}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{45E41068-6AF0-464E-81CA-ADFA8A5AB205}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="17ab58a5-2879-41d1-9642-2a4467011df3"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -1121,9 +1113,17 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{45E41068-6AF0-464E-81CA-ADFA8A5AB205}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{34042540-0C7D-4475-BFB8-6A93E22B7868}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="17ab58a5-2879-41d1-9642-2a4467011df3"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>